--- a/test-documentation.xlsx
+++ b/test-documentation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\6_felev\IET\iet-hf-2024-nomad-szabotorok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4CAAD-E3EC-488C-A0F0-44F23B710B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AC76B7-B98E-4BDD-8830-7685148D011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2715" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rand01" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Pipe02" sheetId="9" r:id="rId4"/>
     <sheet name="Pump01" sheetId="10" r:id="rId5"/>
     <sheet name="Pump02" sheetId="12" r:id="rId6"/>
+    <sheet name="Pump03" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="112">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -359,6 +360,21 @@
   </si>
   <si>
     <t>A pumpa a cső közepére kerül, azaz a meglévő és egy "új" cső közé kerül és a szerelő zsebéből kikerül a pumpa</t>
+  </si>
+  <si>
+    <t>Pump03</t>
+  </si>
+  <si>
+    <t>Pumpa megjavítása random eltörés után</t>
+  </si>
+  <si>
+    <t>Passzold a játékosok köreit amíg el nem romlik az a pumpa amin a szerelők állnak</t>
+  </si>
+  <si>
+    <t>Az első szerelővel javítsd meg a pumpát, oldalt a "Repair" opció kiválasztásával</t>
+  </si>
+  <si>
+    <t>A pumpa megjavul és a szerelő akciópontjai csökkennek egyel</t>
   </si>
 </sst>
 </file>
@@ -590,190 +606,181 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1274,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K3"/>
     </sheetView>
   </sheetViews>
@@ -1289,485 +1296,476 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="23" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="38"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="38"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="10" t="s">
+      <c r="A17" s="8"/>
+      <c r="B17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="48" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="48" t="s">
+      <c r="G20" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="48">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="48">
+      <c r="F21" s="10">
         <v>5</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="48">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="10">
         <v>2</v>
       </c>
-      <c r="F22" s="48">
+      <c r="F22" s="10">
         <v>7</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="48">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="10">
         <v>3</v>
       </c>
-      <c r="F23" s="48">
+      <c r="F23" s="10">
         <v>6</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="48">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10">
         <v>4</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="10">
         <v>6</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="48">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10">
         <v>5</v>
       </c>
-      <c r="F25" s="48">
+      <c r="F25" s="10">
         <v>5</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="48">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="10">
         <v>6</v>
       </c>
-      <c r="F26" s="48">
+      <c r="F26" s="10">
         <v>5</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="10">
         <v>2</v>
       </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
+      <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="48">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10">
         <v>7</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="10">
         <v>14</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="10">
         <v>3</v>
       </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="48">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="10">
         <v>8</v>
       </c>
-      <c r="F28" s="48">
+      <c r="F28" s="10">
         <v>7</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="10">
         <v>9</v>
       </c>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="45"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="48">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="10">
         <v>9</v>
       </c>
-      <c r="F29" s="48">
+      <c r="F29" s="10">
         <v>3</v>
       </c>
-      <c r="G29" s="48">
+      <c r="G29" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="48">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="10">
         <v>10</v>
       </c>
-      <c r="F30" s="48">
+      <c r="F30" s="10">
         <v>4</v>
       </c>
-      <c r="G30" s="48">
+      <c r="G30" s="10">
         <v>5</v>
       </c>
     </row>
@@ -1783,6 +1781,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="B6:K6"/>
@@ -1799,32 +1823,6 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1837,7 +1835,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+      <selection activeCell="B13" sqref="B13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1855,369 +1853,387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="23" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="23" t="s">
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="37" t="s">
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
+      <c r="A13" s="8">
         <v>1</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="8">
         <v>2</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="40" t="s">
         <v>93</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="20" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20" t="s">
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="20" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:17" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
+      <c r="A17" s="8">
         <v>3</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="20" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="55" t="s">
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="36"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="36"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="36"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="36"/>
+      <c r="C26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L11:N12"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="I11:K12"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F11:H12"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="B18:C18"/>
@@ -2231,35 +2247,17 @@
     <mergeCell ref="D11:E12"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F11:H12"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="I11:K12"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L11:N12"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L16:N16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2287,308 +2285,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="20" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="8">
         <v>3</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="I8:K9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -2597,6 +2564,37 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2625,197 +2623,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="59" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="56"/>
       <c r="L11" s="57" t="s">
         <v>103</v>
       </c>
@@ -2823,119 +2821,83 @@
       <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="I8:K9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -2944,6 +2906,42 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -2972,333 +2970,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20" t="s">
+      <c r="E12" s="21"/>
+      <c r="F12" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="20" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L8:N9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="F8:H9"/>
-    <mergeCell ref="I8:K9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -3307,6 +3269,42 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3317,8 +3315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A2206-F158-402D-8992-724A8433B1AC}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K3"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3334,517 +3332,793 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12">
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
         <v>45429</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="27"/>
+      <c r="D8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="23" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="37" t="s">
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="20" t="s">
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="10" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="20" t="s">
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="10" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
     </row>
     <row r="13" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="20" t="s">
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
     </row>
     <row r="14" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="20" t="s">
+      <c r="G14" s="41"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
     </row>
     <row r="15" spans="1:14" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="10" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="20" t="s">
+      <c r="G16" s="41"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
     </row>
     <row r="17" spans="1:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="10" t="s">
+      <c r="C17" s="22"/>
+      <c r="D17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="20" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="20" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
     </row>
     <row r="18" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="10" t="s">
+      <c r="C18" s="22"/>
+      <c r="D18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
     </row>
     <row r="19" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="10" t="s">
+      <c r="C19" s="22"/>
+      <c r="D19" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
     </row>
     <row r="20" spans="1:14" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="10" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="20" t="s">
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
     </row>
     <row r="21" spans="1:14" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="22"/>
+      <c r="D21" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="20" t="s">
+      <c r="E21" s="21"/>
+      <c r="F21" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="20" t="s">
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="I8:K9"/>
     <mergeCell ref="L8:N9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304228BD-850C-483B-9FDB-C4AD49AE92C9}">
+  <dimension ref="A1:N12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="45">
+        <v>45429</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="18"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="31"/>
+      <c r="F8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+    </row>
+    <row r="10" spans="1:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>2</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+    </row>
+    <row r="12" spans="1:14" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="41"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:C9"/>
     <mergeCell ref="D8:E9"/>
     <mergeCell ref="F8:H9"/>
     <mergeCell ref="I8:K9"/>
+    <mergeCell ref="L8:N9"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -3856,6 +4130,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>